--- a/polldata.xlsx
+++ b/polldata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="30">
   <si>
     <t>startDate</t>
   </si>
@@ -112,9 +112,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -146,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -161,6 +162,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -465,7 +469,7 @@
         <v>18.0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:K263" si="1">100-(SUM(E2:J2)+L2)</f>
+        <f t="shared" ref="K2:K264" si="1">100-(SUM(E2:J2)+L2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -10652,7 +10656,43 @@
       </c>
     </row>
     <row r="264" ht="12.75" customHeight="1">
-      <c r="L264" s="2"/>
+      <c r="A264" s="5">
+        <v>44561.0</v>
+      </c>
+      <c r="B264" s="8">
+        <v>44563.0</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="F264" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="G264" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="H264" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I264" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="J264" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="K264" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L264" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="L265" s="2"/>

--- a/polldata.xlsx
+++ b/polldata.xlsx
@@ -10695,6 +10695,9 @@
       </c>
     </row>
     <row r="265" ht="12.75" customHeight="1">
+      <c r="A265" s="8">
+        <v>44567.0</v>
+      </c>
       <c r="L265" s="2"/>
     </row>
     <row r="266" ht="12.75" customHeight="1">
